--- a/HuntControl/Content/excel/report/reestr_hunt_lic_issued_ex.xlsx
+++ b/HuntControl/Content/excel/report/reestr_hunt_lic_issued_ex.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Форма 7.1. (ОХ)</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>(дата составления документа)</t>
+  </si>
+  <si>
+    <t>СНИЛС</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -428,7 +431,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -436,7 +438,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,17 +445,52 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -464,84 +500,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,15 +550,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -879,34 +870,36 @@
     <col min="10" max="14" width="5.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="6.7109375" style="1" customWidth="1"/>
     <col min="16" max="20" width="5.5703125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="7.42578125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -922,45 +915,46 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="61"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="57"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
       <c r="M4" s="15">
         <v>20</v>
       </c>
@@ -972,9 +966,10 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="11"/>
+      <c r="U4" s="12"/>
+    </row>
+    <row r="5" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -994,9 +989,10 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="14"/>
-    </row>
-    <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="2"/>
+      <c r="U5" s="14"/>
+    </row>
+    <row r="6" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1012,82 +1008,84 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
-      <c r="R7" s="53" t="s">
+      <c r="R7" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="S7" s="54"/>
-      <c r="T7" s="55"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="52" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
-      <c r="R9" s="56" t="s">
+      <c r="R9" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="57"/>
-      <c r="T9" s="58"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -1108,240 +1106,251 @@
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="U10" s="30"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="20"/>
-    </row>
-    <row r="12" spans="1:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="24"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="31"/>
+    </row>
+    <row r="12" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="14"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="20"/>
-    </row>
-    <row r="14" spans="1:20" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="28"/>
-    </row>
-    <row r="15" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="12"/>
+    </row>
+    <row r="14" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="14"/>
+    </row>
+    <row r="15" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-    </row>
-    <row r="16" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+    </row>
+    <row r="16" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="33" t="s">
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="36" t="s">
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36" t="s">
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-    </row>
-    <row r="17" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="31" t="s">
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="31" t="s">
+      <c r="M17" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="31" t="s">
+      <c r="N17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="P17" s="37" t="s">
+      <c r="P17" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="31" t="s">
+      <c r="Q17" s="48"/>
+      <c r="R17" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="31" t="s">
+      <c r="S17" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="T17" s="31" t="s">
+      <c r="T17" s="38" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
+      <c r="U17" s="40"/>
+    </row>
+    <row r="18" spans="1:21" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
       <c r="P18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="40"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -1402,8 +1411,11 @@
       <c r="T19" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
@@ -1412,125 +1424,126 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="66"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="66"/>
+      <c r="M20" s="28"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="67"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="29"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="66"/>
+      <c r="R20" s="28"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="49" t="s">
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-    </row>
-    <row r="23" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="51" t="s">
+      <c r="C22" s="52"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+    </row>
+    <row r="23" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="L23" s="51" t="s">
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="L23" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="s">
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
       <c r="O24" s="11"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
       <c r="T24" s="11"/>
     </row>
-    <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="51" t="s">
+    <row r="25" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="J25" s="51" t="s">
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="J25" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="P25" s="51" t="s">
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="P25" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="J26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="K26" s="2"/>
-      <c r="L26" s="29" t="s">
+      <c r="L26" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
       <c r="Q26" s="1">
         <v>20</v>
       </c>
@@ -1539,23 +1552,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="51" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="L27" s="65" t="s">
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="L27" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="55">
+    <mergeCell ref="U16:U18"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A3:U3"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="A15:U15"/>
+    <mergeCell ref="K8:O9"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:S11"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="M26:P26"/>
@@ -1568,30 +1597,17 @@
     <mergeCell ref="P24:S24"/>
     <mergeCell ref="J25:N25"/>
     <mergeCell ref="P25:S25"/>
-    <mergeCell ref="A1:T1"/>
     <mergeCell ref="B22:C23"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="L22:R22"/>
-    <mergeCell ref="K8:O9"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:S11"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
     <mergeCell ref="T17:T18"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="M16:Q16"/>
     <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N17:N18"/>
     <mergeCell ref="A8:J9"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="E13:S13"/>
@@ -1599,7 +1615,6 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:T15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
@@ -1609,9 +1624,8 @@
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0" right="0.78740157480314965" top="0.78740157480314965" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
